--- a/level1/edit_profile_test_data.xlsx
+++ b/level1/edit_profile_test_data.xlsx
@@ -14,27 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>firstname</t>
   </si>
   <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Thach</t>
+  </si>
+  <si>
+    <t>Hao</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Thien</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>firstname:- Missing given name</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>lastname:- Missing last name</t>
+  </si>
+  <si>
+    <t>Vuong</t>
+  </si>
+  <si>
+    <t>Lam</t>
+  </si>
+  <si>
     <t>cancel</t>
-  </si>
-  <si>
-    <t>Hoang</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Diep</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>So</t>
   </si>
 </sst>
 </file>
@@ -394,7 +439,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -402,6 +447,11 @@
   <cols>
     <col min="1" max="1" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="36.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -411,29 +461,108 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
